--- a/FeatureExtraction.xlsx
+++ b/FeatureExtraction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielvillarreal/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DANFIT1/HifoCap/Matlab algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,31 +214,6 @@
     <t>Not directly implemented</t>
   </si>
   <si>
-    <r>
-      <t>feauture_names=TimeOffset,,,,AppEntropy,SampEntropy,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,,,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wavelet_db4_EnergyBand_1,Wavelet_db4_EnergyBand_2,Wavelet_db4_EnergyBand_3,Wavelet_db4_EnergyBand_4,Wavelet_db4_EnergyBand_5,Wavelet_db4_EnergyBand_6,</t>
-    </r>
-  </si>
-  <si>
     <t>f_sampen</t>
   </si>
   <si>
@@ -252,13 +227,16 @@
   </si>
   <si>
     <t>WaveletCoefficientEnergy</t>
+  </si>
+  <si>
+    <t>feauture_names=TimeOffset,,,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,13 +253,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -690,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -954,10 +925,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -972,10 +943,10 @@
         <v>45</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -990,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1046,7 +1017,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
